--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成ACL接口的适配，port的bmp的修改，使代码达到可以调试编译错误的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>替换ACL的接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,15 @@
   </si>
   <si>
     <t>高数学两节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ACL接口的适配，port的bmp的修改，使代码达到可以调试编译错误的状态
+（今天状态很好，上午觉得一瞬间过去了）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,64 +316,154 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,110 +475,53 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -759,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,7 +808,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -778,43 +816,44 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
-    <col min="4" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="8" width="30.125" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="73" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="73" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="30.125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="60" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -825,568 +864,598 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="35">
+      <c r="A3" s="47">
         <v>43171</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="36"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="46"/>
+      <c r="B5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="46"/>
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="33"/>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="44"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="45"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="45"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="47"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="45"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="45"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="47"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="45"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="51"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="54"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="52"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="54"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="52"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="54"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="52"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="54"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="52"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="26"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="26"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="62"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="56"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="63"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="56"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="56"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="63"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="56"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="63"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="56"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="63"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="56"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="63"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="57"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="64"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="26">
-        <v>0.5</v>
-      </c>
+      <c r="A32" s="42"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="26"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="26"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="26"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I18:I23"/>
@@ -1398,28 +1467,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="H24:H31"/>
     <mergeCell ref="I24:I31"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="H32:H37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,54 @@
   <si>
     <t>完成ACL接口的适配，port的bmp的修改，使代码达到可以调试编译错误的状态
 （今天状态很好，上午觉得一瞬间过去了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只看了一节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决完编译问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词40个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习四章makefile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植聚合口linux内核代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植完linux内核的聚合口代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数一节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,15 +391,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -418,18 +520,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -439,15 +553,6 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,53 +580,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -805,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -816,44 +876,44 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="73" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="73" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="73" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="31" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -864,450 +924,478 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="47">
+      <c r="A3" s="57">
         <v>43171</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="71">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="53"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="46"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="53"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="61" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="53"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="46"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="54"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="38"/>
+      <c r="A8" s="77">
+        <v>43172</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="37"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="38"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="39"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="38"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="38"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="38"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="22"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="56"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="25"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="25"/>
-      <c r="B15" s="20"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="25"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="42"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="42"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="21"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="34"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="27"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="27"/>
-      <c r="B26" s="20"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="35"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="35"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="35"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="35"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="28"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="21"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="53"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="42"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="21"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="54"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="39"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="21"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="21"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="39"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="21"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="39"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
@@ -1315,10 +1403,10 @@
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
@@ -1326,10 +1414,10 @@
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
@@ -1337,10 +1425,10 @@
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
@@ -1348,10 +1436,10 @@
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
@@ -1359,10 +1447,10 @@
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
     </row>
@@ -1370,10 +1458,10 @@
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
@@ -1381,10 +1469,10 @@
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
     </row>
@@ -1392,10 +1480,10 @@
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
     </row>
@@ -1403,10 +1491,10 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
     </row>
@@ -1414,10 +1502,10 @@
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
     </row>
@@ -1425,48 +1513,70 @@
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
     </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I39"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="H34:H39"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G5:G7"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I18:I23"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A26:A33"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H24:H31"/>
-    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="H26:H33"/>
+    <mergeCell ref="I26:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>高数一节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,6 +458,93 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -463,12 +554,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,21 +575,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,74 +587,8 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -857,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -868,7 +875,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -884,23 +891,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -924,10 +931,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="57">
+      <c r="A3" s="45">
         <v>43171</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -939,16 +946,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="71">
+      <c r="I3" s="50">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="58"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -958,12 +965,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="20"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="72"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="59"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -977,12 +984,12 @@
         <v>17</v>
       </c>
       <c r="G5" s="32"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -992,11 +999,11 @@
         <v>17</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="72"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="59"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
@@ -1011,11 +1018,11 @@
       <c r="G7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="77">
+      <c r="A8" s="58">
         <v>43172</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -1025,14 +1032,18 @@
         <v>22</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="78">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="57"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="55"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="60"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
@@ -1040,13 +1051,13 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="56"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="61" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1055,26 +1066,28 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="55"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="56"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="56"/>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="57"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="55"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="61" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1083,38 +1096,42 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="56"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="55"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="78">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="57"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="55"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="56"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="55"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="10"/>
       <c r="C15" s="1"/>
       <c r="D15" s="25"/>
@@ -1122,43 +1139,43 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="40"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="43"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="5"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="41"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="43"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="1"/>
       <c r="D17" s="26"/>
       <c r="E17" s="18"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="41"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="43"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="1"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="41"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="43"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
       <c r="D19" s="26"/>
@@ -1166,227 +1183,227 @@
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="41"/>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="9"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="9"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="39"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="6"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="39"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="39"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="39"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="6"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="39"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="7"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="45"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="7"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="45"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="7"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="45"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="7"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="45"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="7"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="53"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="7"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="53"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="45"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="7"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="53"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="46"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="54"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="9"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="39"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="9"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="6"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="6"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="39"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11"/>
@@ -1544,28 +1561,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="G8:G14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="G30:G32"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="I20:I25"/>
@@ -1577,6 +1572,28 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="H26:H33"/>
     <mergeCell ref="I26:I33"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="H34:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,74 @@
   </si>
   <si>
     <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成修改RPS中的mac acl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成RPS中mac acl的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改RPS中mac acl的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证完成代码并提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10 - 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00 - 18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10 - 16:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习两节makefile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数两节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,9 +453,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,22 +514,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,119 +628,29 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -864,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -872,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -883,44 +945,44 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="31" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="30" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -931,656 +993,695 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="45">
+      <c r="A3" s="58">
         <v>43171</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="53" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="63">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="51"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="51"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="51"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="44"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="58">
+      <c r="A8" s="48">
         <v>43172</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="78">
+      <c r="D8" s="21"/>
+      <c r="E8" s="32">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="56"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="46">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="56"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="56"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="57"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="56"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="56"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="78">
+      <c r="D13" s="21"/>
+      <c r="E13" s="32">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="56"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="57"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="56"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="73">
+        <v>43173</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="67"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="70"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="68"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="70"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="68"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="70"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="68"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="70"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="68"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="37"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="75"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
-      <c r="B27" s="59"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="76"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="76"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="76"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="7"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="76"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="76"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72"/>
-      <c r="B32" s="74"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="76"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="77"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="9"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="40"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="37"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A35" s="50"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="37"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="37"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="37"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="37"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="37"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="H26:H33"/>
-    <mergeCell ref="I26:I33"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="G8:G14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
+  <mergeCells count="32">
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="H35:H40"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:A7"/>
@@ -1588,12 +1689,25 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H27:H34"/>
+    <mergeCell ref="I27:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,30 @@
   </si>
   <si>
     <t>高数两节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只学了一节，静不下心来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞 mac acl去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学一节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,17 +544,113 @@
     <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,9 +664,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,99 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -937,7 +961,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -953,23 +977,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -993,10 +1017,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="58">
+      <c r="A3" s="45">
         <v>43171</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1008,16 +1032,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="50">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="59"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1027,12 +1051,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="64"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="57"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1045,13 +1069,13 @@
       <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="64"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1060,12 +1084,12 @@
       <c r="F6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="64"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="57"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1077,17 +1101,17 @@
       <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="48">
+      <c r="A8" s="55">
         <v>43172</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1100,15 +1124,15 @@
       <c r="F8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="71"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="46">
+      <c r="I8" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1117,13 +1141,13 @@
       <c r="F9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="46"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="47"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1134,15 +1158,15 @@
       <c r="F10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="34" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="46"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="47"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1151,13 +1175,13 @@
       <c r="F11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="46"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="47"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1170,13 +1194,13 @@
       <c r="F12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="71"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="46"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1187,13 +1211,13 @@
       <c r="F13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="46"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="47"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1202,12 +1226,12 @@
       <c r="F14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="46"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="73">
+      <c r="A15" s="68">
         <v>43173</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -1218,14 +1242,18 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="35"/>
+      <c r="I15" s="66">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="37"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1235,14 +1263,16 @@
         <v>41</v>
       </c>
       <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="37"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1250,14 +1280,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="37"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1265,14 +1297,16 @@
         <v>45</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="37"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1280,13 +1314,17 @@
         <v>44</v>
       </c>
       <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="37"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="31" t="s">
         <v>47</v>
       </c>
@@ -1295,230 +1333,242 @@
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="50"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="35">
+        <v>43174</v>
+      </c>
+      <c r="B21" s="36"/>
       <c r="C21" s="9"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="34"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="50"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="9"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="34"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="34"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="34"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="34"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="7"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="43"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="39"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="7"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="44"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="39"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="7"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="44"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="7"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="44"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="7"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="44"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="7"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="44"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="39"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="7"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="44"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="40"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="11"/>
       <c r="C34" s="7"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="45"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="9"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="50"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="9"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="6"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="34"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="34"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="34"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="34"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="37"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10"/>
@@ -1676,27 +1726,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B19"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="I21:I26"/>
@@ -1708,6 +1737,27 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="H27:H34"/>
     <mergeCell ref="I27:I34"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="H35:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE13F5E-F087-429E-83D2-3FF3C9D607AF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,12 +245,16 @@
     <t>学习数学一节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,13 +555,121 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -567,114 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -950,21 +955,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -976,24 +981,24 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1016,11 +1021,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="66">
         <v>43171</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="64" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1032,16 +1037,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="71">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="67"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1051,12 +1056,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="72"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
+      <c r="B5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1070,12 +1075,12 @@
         <v>17</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="72"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1085,11 +1090,11 @@
         <v>17</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="72"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1104,14 +1109,14 @@
       <c r="G7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="55">
+      <c r="H7" s="47"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52">
         <v>43172</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1126,13 +1131,13 @@
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="54">
+      <c r="I8" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1143,11 +1148,11 @@
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58" t="s">
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="53"/>
+      <c r="B10" s="56" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1162,11 +1167,11 @@
         <v>32</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="53"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1177,11 +1182,11 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58" t="s">
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1196,11 +1201,11 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1213,11 +1218,11 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="54"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1228,10 +1233,10 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="68">
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
         <v>43173</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -1247,13 +1252,13 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="66">
+      <c r="I15" s="38">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="69"/>
-      <c r="B16" s="61" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="59" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1268,11 +1273,11 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="67"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="69"/>
-      <c r="B17" s="62"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1285,11 +1290,11 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="67"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="41"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1302,11 +1307,11 @@
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="67"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="69"/>
-      <c r="B19" s="63"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1321,10 +1326,10 @@
         <v>52</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="67"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="69"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
       <c r="B20" s="31" t="s">
         <v>47</v>
       </c>
@@ -1340,24 +1345,26 @@
         <v>51</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="67"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="35">
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="55">
         <v>43174</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="9"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
+      <c r="I21" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="9"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -1366,9 +1373,9 @@
       <c r="H22" s="6"/>
       <c r="I22" s="37"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="6"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -1377,9 +1384,9 @@
       <c r="H23" s="6"/>
       <c r="I23" s="37"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="6"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -1388,9 +1395,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1398,179 +1405,183 @@
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="6"/>
       <c r="I25" s="37"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="6"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="65"/>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="7"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="71"/>
-      <c r="B28" s="65"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="7"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="75"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="71"/>
-      <c r="B29" s="65"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="7"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="71"/>
-      <c r="B30" s="73"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="7"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="71"/>
-      <c r="B31" s="73"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="7"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="71"/>
-      <c r="B32" s="73"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="7"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="75"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="71"/>
-      <c r="B33" s="73"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="49"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="7"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="75"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
       <c r="B34" s="11"/>
       <c r="C34" s="7"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="76"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="50"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="55"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="9"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
-      <c r="H35" s="38"/>
+      <c r="H35" s="74"/>
       <c r="I35" s="37"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="55"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="9"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
-      <c r="H36" s="39"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="37"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="6"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="37"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="6"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="37"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="6"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="6"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
-      <c r="H40" s="40"/>
+      <c r="H40" s="76"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1581,7 +1592,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1592,7 +1603,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1603,7 +1614,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1614,7 +1625,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1625,7 +1636,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1636,7 +1647,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1647,7 +1658,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1658,7 +1669,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1669,7 +1680,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1680,7 +1691,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1691,7 +1702,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1702,7 +1713,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1713,7 +1724,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1726,6 +1737,27 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="I21:I26"/>
@@ -1737,27 +1769,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="H27:H34"/>
     <mergeCell ref="I27:I34"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="H35:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE13F5E-F087-429E-83D2-3FF3C9D607AF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,12 +248,40 @@
     <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读下RPS中QOS的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习《数据结构》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词40个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习一节数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -483,9 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,12 +580,99 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,24 +687,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,84 +704,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -955,63 +979,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="30" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="29" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1021,735 +1045,744 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="66">
+    <row r="3" spans="1:9">
+      <c r="A3" s="45">
         <v>43171</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="71">
+      <c r="I3" s="50">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="70"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="72"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="64" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="44"/>
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="72"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="72"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="13" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="44"/>
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
+      <c r="H7" s="53"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="55">
         <v>43172</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="32">
+      <c r="D8" s="20"/>
+      <c r="E8" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="51">
+      <c r="G8" s="33"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="56"/>
+      <c r="B10" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="23" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="51"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="57"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="56"/>
+      <c r="B12" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="58"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="32">
+      <c r="D13" s="20"/>
+      <c r="E13" s="31">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="51"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="57"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
+      <c r="G14" s="33"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A15" s="68">
         <v>43173</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="38">
+      <c r="I15" s="66">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="59" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="69"/>
+      <c r="B16" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="60"/>
+      <c r="I16" s="67"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="69"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="60"/>
+      <c r="I17" s="67"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="69"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="61"/>
+      <c r="I18" s="67"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="69"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="31" t="s">
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="69"/>
+      <c r="B20" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="55">
+      <c r="I20" s="67"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="35">
         <v>43174</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="6"/>
       <c r="I21" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="45"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="6"/>
       <c r="I22" s="37"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="6"/>
       <c r="I23" s="37"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="6"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="26"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="6"/>
       <c r="I25" s="37"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="26"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="6"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="49"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="49"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="49"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="49"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="49"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="49"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="50"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="45"/>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A27" s="45">
+        <v>43175</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="70"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="70"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="70"/>
+      <c r="B30" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="70"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="70"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="71"/>
+      <c r="B33" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="74"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="37"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="75"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="37"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+    <row r="37" spans="1:9">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="75"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
+    <row r="38" spans="1:9">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="75"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="37"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+    <row r="39" spans="1:9">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="75"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="37"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="I27:I33"/>
     <mergeCell ref="I8:I14"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="B21:B22"/>
@@ -1758,17 +1791,19 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H27:H34"/>
-    <mergeCell ref="I27:I34"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="H34:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,38 @@
   </si>
   <si>
     <t>学习一节数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟夏超他们吹牛逼去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学一下数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看RPS中的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,13 +614,118 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,110 +737,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -979,7 +1020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -989,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1006,23 +1047,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1046,10 +1087,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="45">
+      <c r="A3" s="42">
         <v>43171</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="64" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1061,16 +1102,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="70">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1080,12 +1121,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1099,12 +1140,12 @@
         <v>17</v>
       </c>
       <c r="G5" s="32"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="51"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1114,11 +1155,11 @@
         <v>17</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="44"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1133,14 +1174,14 @@
       <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="52">
         <v>43172</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1155,13 +1196,13 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="54">
+      <c r="I8" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1172,11 +1213,11 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="56" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1191,11 +1232,11 @@
         <v>32</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1206,11 +1247,11 @@
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1225,11 +1266,11 @@
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="54"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1242,11 +1283,11 @@
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="54"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1257,10 +1298,10 @@
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="54"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="68">
+      <c r="A15" s="40">
         <v>43173</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -1276,13 +1317,13 @@
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="66">
+      <c r="I15" s="38">
         <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="69"/>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="59" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1297,11 +1338,11 @@
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="67"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="69"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1314,11 +1355,11 @@
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="67"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1331,11 +1372,11 @@
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="67"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="69"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1350,10 +1391,10 @@
         <v>52</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="67"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="69"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="30" t="s">
         <v>47</v>
       </c>
@@ -1369,13 +1410,13 @@
         <v>51</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="35">
+      <c r="A21" s="55">
         <v>43174</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="9"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -1387,8 +1428,8 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="9"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -1398,8 +1439,8 @@
       <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="6"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -1409,8 +1450,8 @@
       <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="6"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -1420,8 +1461,8 @@
       <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1437,8 +1478,8 @@
       <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
@@ -1452,10 +1493,10 @@
       <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="45">
+      <c r="A27" s="42">
         <v>43175</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1463,40 +1504,52 @@
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="73"/>
+      <c r="F27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="70"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="74"/>
+      <c r="F28" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="77"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="70"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="74"/>
+      <c r="E29" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="70"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="46" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1504,39 +1557,45 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="G30" s="26"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="74"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="70"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="74"/>
+      <c r="F31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="70"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="74"/>
+      <c r="F32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="71"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="34" t="s">
         <v>61</v>
       </c>
@@ -1545,75 +1604,91 @@
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="F33" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="75"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="55">
+        <v>43176</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="73"/>
       <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="74"/>
       <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="39"/>
+      <c r="H36" s="74"/>
       <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="74"/>
       <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="6"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="74"/>
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="6"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="40"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9">
@@ -1771,7 +1846,28 @@
       <c r="I53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="I21:I26"/>
@@ -1783,27 +1879,7 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="H27:H33"/>
     <mergeCell ref="I27:I33"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="G27:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,33 @@
   </si>
   <si>
     <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10 - 14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学一下数学</t>
+  </si>
+  <si>
+    <t>学一下数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10 - 17:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50 - 18:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,15 +641,99 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,24 +746,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,81 +763,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -745,6 +772,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1047,23 +1077,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1087,10 +1117,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="42">
+      <c r="A3" s="45">
         <v>43171</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1102,16 +1132,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="50">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="66"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1121,12 +1151,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="71"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="65"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1140,12 +1170,12 @@
         <v>17</v>
       </c>
       <c r="G5" s="32"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="71"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1155,11 +1185,11 @@
         <v>17</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="65"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1174,14 +1204,14 @@
       <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="72"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="52">
+      <c r="A8" s="55">
         <v>43172</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1196,13 +1226,13 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="51">
+      <c r="I8" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1213,11 +1243,11 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1232,11 +1262,11 @@
         <v>32</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="53"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1247,11 +1277,11 @@
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1266,11 +1296,11 @@
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="53"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1283,11 +1313,11 @@
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="53"/>
-      <c r="B14" s="57"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1298,10 +1328,10 @@
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="40">
+      <c r="A15" s="68">
         <v>43173</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -1317,13 +1347,13 @@
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="38">
+      <c r="I15" s="66">
         <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="41"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1338,11 +1368,11 @@
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="39"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="41"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1355,11 +1385,11 @@
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="41"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1372,11 +1402,11 @@
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="41"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1391,10 +1421,10 @@
         <v>52</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="39"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="41"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="30" t="s">
         <v>47</v>
       </c>
@@ -1410,13 +1440,13 @@
         <v>51</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="55">
+      <c r="A21" s="35">
         <v>43174</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="9"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -1428,8 +1458,8 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="55"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="9"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -1439,8 +1469,8 @@
       <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -1450,8 +1480,8 @@
       <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -1461,8 +1491,8 @@
       <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1478,8 +1508,8 @@
       <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
@@ -1493,10 +1523,10 @@
       <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="42">
+      <c r="A27" s="45">
         <v>43175</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="65" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1510,14 +1540,14 @@
       <c r="G27" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48">
+      <c r="H27" s="53"/>
+      <c r="I27" s="73">
         <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="43"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1527,12 +1557,12 @@
         <v>64</v>
       </c>
       <c r="G28" s="77"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="49"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="74"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="43"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="7" t="s">
         <v>59</v>
       </c>
@@ -1544,12 +1574,12 @@
         <v>65</v>
       </c>
       <c r="G29" s="78"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="49"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="43"/>
-      <c r="B30" s="46" t="s">
+      <c r="A30" s="70"/>
+      <c r="B30" s="72" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1561,12 +1591,12 @@
         <v>65</v>
       </c>
       <c r="G30" s="26"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="49"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="74"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
@@ -1575,13 +1605,13 @@
       <c r="F31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="49"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="74"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
@@ -1590,12 +1620,12 @@
       <c r="F32" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="49"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="74"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="44"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="34" t="s">
         <v>61</v>
       </c>
@@ -1608,14 +1638,14 @@
         <v>64</v>
       </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="50"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="35">
         <v>43176</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="36" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1623,84 +1653,96 @@
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="F34" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="73"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="55"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="F35" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="G35" s="25"/>
-      <c r="H35" s="74"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="79" t="s">
+        <v>76</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="74"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="25"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="74"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="74"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="75"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="37"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10"/>
@@ -1845,29 +1887,19 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B19"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="I21:I26"/>
@@ -1880,6 +1912,27 @@
     <mergeCell ref="H27:H33"/>
     <mergeCell ref="I27:I33"/>
     <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="H34:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-12.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,14 +317,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:10 - 14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学一下数学</t>
-  </si>
-  <si>
-    <t>学一下数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,6 +326,14 @@
   </si>
   <si>
     <t>17:50 - 18:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把单词背完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,6 +642,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,9 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1060,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1077,23 +1078,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1117,10 +1118,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="45">
+      <c r="A3" s="46">
         <v>43171</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1132,16 +1133,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="51">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1151,12 +1152,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1170,12 +1171,12 @@
         <v>17</v>
       </c>
       <c r="G5" s="32"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="51"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1185,11 +1186,11 @@
         <v>17</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1204,14 +1205,14 @@
       <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="56">
         <v>43172</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1226,13 +1227,13 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="54">
+      <c r="I8" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1243,11 +1244,11 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1262,11 +1263,11 @@
         <v>32</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1277,11 +1278,11 @@
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1296,11 +1297,11 @@
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="54"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1313,11 +1314,11 @@
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="54"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1328,10 +1329,10 @@
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="54"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="68">
+      <c r="A15" s="69">
         <v>43173</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -1347,13 +1348,13 @@
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="66">
+      <c r="I15" s="67">
         <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="69"/>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1368,11 +1369,11 @@
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="67"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="69"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1385,11 +1386,11 @@
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="67"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1402,11 +1403,11 @@
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="67"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="69"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1421,10 +1422,10 @@
         <v>52</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="67"/>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="69"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="30" t="s">
         <v>47</v>
       </c>
@@ -1440,59 +1441,59 @@
         <v>51</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="35">
+      <c r="A21" s="36">
         <v>43174</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="37">
+      <c r="I21" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="9"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="6"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="6"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1505,11 +1506,11 @@
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
@@ -1520,13 +1521,13 @@
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="45">
+      <c r="A27" s="46">
         <v>43175</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="66" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1537,17 +1538,17 @@
       <c r="F27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="73">
+      <c r="H27" s="54"/>
+      <c r="I27" s="74">
         <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="70"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1556,13 +1557,13 @@
       <c r="F28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="74"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="70"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="7" t="s">
         <v>59</v>
       </c>
@@ -1573,13 +1574,13 @@
       <c r="F29" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="74"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="70"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="73" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1591,12 +1592,12 @@
         <v>65</v>
       </c>
       <c r="G30" s="26"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="74"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="70"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
@@ -1605,13 +1606,13 @@
       <c r="F31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="74"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="70"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
@@ -1620,12 +1621,12 @@
       <c r="F32" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="74"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="71"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="34" t="s">
         <v>61</v>
       </c>
@@ -1638,14 +1639,14 @@
         <v>64</v>
       </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="75"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="35">
+      <c r="A34" s="36">
         <v>43176</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1657,12 +1658,12 @@
         <v>71</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="9" t="s">
         <v>68</v>
       </c>
@@ -1672,77 +1673,83 @@
         <v>72</v>
       </c>
       <c r="G35" s="25"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="37"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="37"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="D37" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="37"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="F38" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G38" s="25"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="6"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="37"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="6"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="37"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10"/>
